--- a/TB_Backendspreadsheet.xlsx
+++ b/TB_Backendspreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Backend Test Cases :</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>4.Verify if the recently added item is at the top</t>
+  </si>
+  <si>
+    <t>B.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if the inventory gets refreshed on adding and deleting </t>
+  </si>
+  <si>
+    <t>an item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory should get refreshed on adding and deleting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Verify if the inventory gets refreshed on adding and </t>
+  </si>
+  <si>
+    <t>items</t>
   </si>
 </sst>
 </file>
@@ -236,10 +254,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,65 +708,65 @@
       <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -756,22 +774,54 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="C48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="D50" s="4"/>
+    </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
